--- a/Historial/estructura paso.xlsx
+++ b/Historial/estructura paso.xlsx
@@ -27,9 +27,6 @@
     <t>OS</t>
   </si>
   <si>
-    <t>gradiente</t>
-  </si>
-  <si>
     <t>°C</t>
   </si>
   <si>
@@ -117,9 +114,6 @@
     <t>DW140</t>
   </si>
   <si>
-    <t>Dw150</t>
-  </si>
-  <si>
     <t>DW160</t>
   </si>
   <si>
@@ -208,6 +202,12 @@
   </si>
   <si>
     <t>FuncionAbrirPuerta</t>
+  </si>
+  <si>
+    <t>gradiente/enjuagues/giros</t>
+  </si>
+  <si>
+    <t>DW150</t>
   </si>
 </sst>
 </file>
@@ -285,17 +285,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -387,7 +387,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="F4F4F4"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -672,27 +672,29 @@
   <dimension ref="A2:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1023" width="11.5703125"/>
+    <col min="1" max="3" width="11.5703125"/>
+    <col min="4" max="4" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="1023" width="11.5703125"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
     </row>
     <row r="3" spans="1:10" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
@@ -735,25 +737,25 @@
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
@@ -781,59 +783,59 @@
       <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:10" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
+      <c r="A7" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
+      <c r="G7" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
     </row>
     <row r="8" spans="1:10" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>0</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
+      <c r="B8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
       <c r="E8" s="1"/>
       <c r="G8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I8" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>46</v>
-      </c>
       <c r="J8" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>1</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
+      <c r="B9" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
       <c r="E9" s="1"/>
       <c r="G9" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I9" s="2" t="str">
         <f>"h" &amp; DEC2HEX(CODE(MID(H9,2,1))) &amp; DEC2HEX(CODE(MID(H9,1,1)))</f>
@@ -848,20 +850,20 @@
       <c r="A10" s="2">
         <v>2</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
+      <c r="B10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
       <c r="E10" s="1"/>
       <c r="G10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H10" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="I10" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J10" s="5">
         <f t="shared" si="0"/>
@@ -872,20 +874,20 @@
       <c r="A11" s="2">
         <v>3</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
+      <c r="B11" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
       <c r="E11" s="1"/>
       <c r="G11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H11" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="I11" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J11" s="5">
         <f t="shared" si="0"/>
@@ -896,20 +898,20 @@
       <c r="A12" s="2">
         <v>4</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
+      <c r="B12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
       <c r="E12" s="1"/>
       <c r="G12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H12" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="I12" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J12" s="5">
         <f t="shared" si="0"/>
@@ -920,20 +922,20 @@
       <c r="A13" s="2">
         <v>5</v>
       </c>
-      <c r="B13" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
+      <c r="B13" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
       <c r="E13" s="1"/>
       <c r="G13" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J13" s="5">
         <f>HEX2DEC(SUBSTITUTE(I13,"h",""))</f>
@@ -944,20 +946,20 @@
       <c r="A14" s="2">
         <v>6</v>
       </c>
-      <c r="B14" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
+      <c r="B14" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
       <c r="E14" s="1"/>
       <c r="G14" s="2" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J14" s="5">
         <f t="shared" ref="J14:J20" si="1">HEX2DEC(SUBSTITUTE(I14,"h",""))</f>
@@ -968,20 +970,20 @@
       <c r="A15" s="2">
         <v>7</v>
       </c>
-      <c r="B15" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
+      <c r="B15" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
       <c r="E15" s="1"/>
       <c r="G15" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J15" s="5">
         <f t="shared" si="1"/>
@@ -992,20 +994,20 @@
       <c r="A16" s="2">
         <v>8</v>
       </c>
-      <c r="B16" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
+      <c r="B16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
       <c r="E16" s="1"/>
       <c r="G16" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J16" s="5">
         <f t="shared" si="1"/>
@@ -1016,21 +1018,21 @@
       <c r="A17" s="2">
         <v>9</v>
       </c>
-      <c r="B17" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
+      <c r="B17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J17" s="5">
         <f t="shared" si="1"/>
@@ -1039,23 +1041,23 @@
     </row>
     <row r="18" spans="1:10" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
+        <v>19</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J18" s="5">
         <f t="shared" si="1"/>
@@ -1064,13 +1066,13 @@
     </row>
     <row r="19" spans="1:10" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
+        <v>20</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="2"/>
@@ -1083,13 +1085,13 @@
     </row>
     <row r="20" spans="1:10" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
+        <v>21</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="2"/>
@@ -1102,11 +1104,11 @@
     </row>
     <row r="21" spans="1:10" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
+        <v>22</v>
+      </c>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
@@ -1116,11 +1118,11 @@
     </row>
     <row r="22" spans="1:10" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
+        <v>23</v>
+      </c>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
@@ -1130,11 +1132,11 @@
     </row>
     <row r="23" spans="1:10" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
+        <v>24</v>
+      </c>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
@@ -1144,11 +1146,12 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="B23:D23"/>
@@ -1157,12 +1160,11 @@
     <mergeCell ref="B18:D18"/>
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="B20:D20"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup orientation="landscape" useFirstPageNumber="1" r:id="rId1"/>
@@ -1188,7 +1190,7 @@
   <sheetData>
     <row r="4" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B4" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.2">

--- a/Historial/estructura paso.xlsx
+++ b/Historial/estructura paso.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\hh\lavadora.net\Historial\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="211"/>
   </bookViews>
@@ -11,7 +16,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -213,7 +218,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -285,17 +290,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -375,6 +380,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -422,7 +430,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -457,7 +465,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -683,18 +691,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
     </row>
     <row r="3" spans="1:10" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
@@ -783,30 +791,30 @@
       <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:10" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
     </row>
     <row r="8" spans="1:10" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>0</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
       <c r="E8" s="1"/>
       <c r="G8" s="3" t="s">
         <v>42</v>
@@ -825,11 +833,11 @@
       <c r="A9" s="2">
         <v>1</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
       <c r="E9" s="1"/>
       <c r="G9" s="2" t="s">
         <v>58</v>
@@ -850,11 +858,11 @@
       <c r="A10" s="2">
         <v>2</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
       <c r="E10" s="1"/>
       <c r="G10" s="2" t="s">
         <v>25</v>
@@ -874,11 +882,11 @@
       <c r="A11" s="2">
         <v>3</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
       <c r="E11" s="1"/>
       <c r="G11" s="2" t="s">
         <v>27</v>
@@ -898,11 +906,11 @@
       <c r="A12" s="2">
         <v>4</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
       <c r="E12" s="1"/>
       <c r="G12" s="2" t="s">
         <v>29</v>
@@ -922,11 +930,11 @@
       <c r="A13" s="2">
         <v>5</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
       <c r="E13" s="1"/>
       <c r="G13" s="2" t="s">
         <v>31</v>
@@ -946,11 +954,11 @@
       <c r="A14" s="2">
         <v>6</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
       <c r="E14" s="1"/>
       <c r="G14" s="2" t="s">
         <v>63</v>
@@ -970,11 +978,11 @@
       <c r="A15" s="2">
         <v>7</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
       <c r="E15" s="1"/>
       <c r="G15" s="2" t="s">
         <v>32</v>
@@ -994,11 +1002,11 @@
       <c r="A16" s="2">
         <v>8</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
       <c r="E16" s="1"/>
       <c r="G16" s="2" t="s">
         <v>33</v>
@@ -1018,11 +1026,11 @@
       <c r="A17" s="2">
         <v>9</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="2" t="s">
@@ -1043,11 +1051,11 @@
       <c r="A18" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="2" t="s">
@@ -1068,11 +1076,11 @@
       <c r="A19" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="2"/>
@@ -1087,11 +1095,11 @@
       <c r="A20" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="2"/>
@@ -1106,9 +1114,9 @@
       <c r="A21" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
@@ -1120,9 +1128,9 @@
       <c r="A22" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
@@ -1134,9 +1142,9 @@
       <c r="A23" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
@@ -1146,12 +1154,11 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="B23:D23"/>
@@ -1160,11 +1167,12 @@
     <mergeCell ref="B18:D18"/>
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup orientation="landscape" useFirstPageNumber="1" r:id="rId1"/>
